--- a/IHP_2024/20240524/paramTable.xlsx
+++ b/IHP_2024/20240524/paramTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wada\Desktop\reserch\IHP_2024\20240524\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18CF1535-9527-4F74-974D-5398F8B01006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252DFCF5-613E-4775-8920-F24464D80778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{2C58B998-8B11-45C0-A8C7-FDB4A175F59E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
   <si>
     <r>
       <t>g</t>
@@ -52,7 +52,7 @@
       </rPr>
       <t>m1</t>
     </r>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -90,7 +90,7 @@
       </rPr>
       <t>C1</t>
     </r>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -107,7 +107,7 @@
       </rPr>
       <t>je1</t>
     </r>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -124,7 +124,7 @@
       </rPr>
       <t>ie1</t>
     </r>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -162,7 +162,7 @@
       </rPr>
       <t xml:space="preserve">C2 </t>
     </r>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -179,7 +179,7 @@
       </rPr>
       <t>jc1</t>
     </r>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -217,7 +217,7 @@
       </rPr>
       <t>ce1</t>
     </r>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -255,7 +255,7 @@
       </rPr>
       <t>E1</t>
     </r>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -272,7 +272,7 @@
       </rPr>
       <t>je2</t>
     </r>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -289,7 +289,7 @@
       </rPr>
       <t>m2</t>
     </r>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -306,7 +306,7 @@
       </rPr>
       <t>B</t>
     </r>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -323,7 +323,7 @@
       </rPr>
       <t>jc2</t>
     </r>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -340,7 +340,7 @@
       </rPr>
       <t>ie2</t>
     </r>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -357,7 +357,7 @@
       </rPr>
       <t>PD</t>
     </r>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -395,57 +395,516 @@
       </rPr>
       <t>ce2</t>
     </r>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>[Ω]</t>
   </si>
   <si>
     <t>[mS]</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>385.6825 k</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>324.3113 k</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1.164382 k</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>12.95 f</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2.396 f</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>13.44 f</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>772.6 a</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1 n</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>16 f</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times Newer Roman"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times Newer Roman"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times Newer Roman"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times Newer Roman"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times Newer Roman"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times Newer Roman"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times Newer Roman"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times Newer Roman"/>
+        <family val="3"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times Newer Roman"/>
+        <family val="3"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times Newer Roman"/>
+        <family val="3"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times Newer Roman"/>
+        <family val="3"/>
+      </rPr>
+      <t>21</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times Newer Roman"/>
+        <family val="3"/>
+      </rPr>
+      <t>22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times Newer Roman"/>
+        <family val="3"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times Newer Roman"/>
+        <family val="3"/>
+      </rPr>
+      <t>24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times Newer Roman"/>
+        <family val="3"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times Newer Roman"/>
+        <family val="3"/>
+      </rPr>
+      <t>21</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times Newer Roman"/>
+        <family val="3"/>
+      </rPr>
+      <t>22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times Newer Roman"/>
+        <family val="3"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times Newer Roman"/>
+        <family val="3"/>
+      </rPr>
+      <t>24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times Newer Roman"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times Newer Roman"/>
+        <family val="3"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times Newer Roman"/>
+        <family val="3"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="5">
+    <numFmt numFmtId="179" formatCode="0.0E+00"/>
+    <numFmt numFmtId="180" formatCode="0.000E+00"/>
+    <numFmt numFmtId="182" formatCode="0.00000E+00"/>
+    <numFmt numFmtId="183" formatCode="0.000000E+00"/>
+    <numFmt numFmtId="185" formatCode="0.00000000E+00"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -731,86 +1190,116 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1147,156 +1636,156 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{470DAB8F-DDA3-4267-A11D-2C543D78D80B}">
-  <dimension ref="B1:K9"/>
+  <dimension ref="B1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:K6"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="4.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="4.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" style="1" customWidth="1"/>
     <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:11" s="5" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="26"/>
-      <c r="C2" s="21" t="s">
+    <row r="2" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="23"/>
+      <c r="C2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23" t="s">
+      <c r="F2" s="20"/>
+      <c r="G2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23" t="s">
+      <c r="H2" s="20"/>
+      <c r="I2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="24" t="s">
+      <c r="J2" s="20"/>
+      <c r="K2" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="12">
         <v>24.82</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="14">
         <v>870</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="10">
         <v>25.96</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="4">
         <v>341.35520000000002</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="4">
         <v>540</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B5" s="19"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="8" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="4">
         <v>650</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="9"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="6"/>
     </row>
     <row r="6" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="20"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="11" t="s">
+      <c r="B6" s="17"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11" t="s">
+      <c r="F6" s="8"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="12"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="9"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.4">
       <c r="G7" s="3"/>
@@ -1313,14 +1802,309 @@
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
+      <c r="B9" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="26">
+        <v>2.4819999999999998E-2</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="31">
+        <v>385682.5</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="14">
+        <v>870</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="28">
+        <v>1.2949999999999999E-14</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="34">
+        <v>1.0000000000000001E-9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B10" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="27">
+        <v>2.596E-2</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="32">
+        <v>341.35520000000002</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="4">
+        <v>540</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="29">
+        <v>2.3959999999999999E-15</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="35">
+        <v>1.6000000000000001E-14</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B11" s="16"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="32">
+        <v>324311.3</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="4">
+        <v>650</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="29">
+        <v>1.3440000000000001E-14</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="17"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="33">
+        <v>1164.3820000000001</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="30">
+        <v>7.7259999999999997E-16</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="9"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="25">
+        <f>1/G11+C9+1/E10</f>
+        <v>2.9287961367378747E-2</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="36">
+        <f>(C9+1/E10)*C10*C14</f>
+        <v>2.1098374201630532E-5</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="25">
+        <f>1/G9+1/E10+1/E9</f>
+        <v>4.0815179225325657E-3</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="36"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="25">
+        <f>(1/E10)*(C9+1/E10)-C14*C15</f>
+        <v>-3.8247184234046626E-5</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="36"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="25">
+        <f>C19*C20*(1/G10+1/E12)+I12*(C19*C15+C20*(1/E10))</f>
+        <v>1.4322258399493492E-30</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C18" s="25"/>
+      <c r="E18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="36">
+        <f>-1 *C14*C16</f>
+        <v>1.120182054257775E-6</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="25">
+        <f>K10+I9</f>
+        <v>2.8949999999999999E-14</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="36"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="25">
+        <f>I10+I12+I11</f>
+        <v>1.6608600000000001E-14</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="36"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="36">
+        <f>C19*C19*(1/G10+1/E12)+C19*I12*(C19*C15+C20*1/E10+C10*C19-C14*I12)-C14*I12*(I10+I11)</f>
+        <v>1.913489687990895E-30</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21" s="36">
+        <f>(1/(2*PI()))*(F18/F21)^(1/3)</f>
+        <v>13313971.609948317</v>
+      </c>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="36">
+        <f>C19*C19*I12*(I10+I11)</f>
+        <v>1.0254094913393999E-56</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I22" s="25">
+        <f>(1/(2*PI()))*((SQRT(2)-1)*(F18/F22))^(1/4)</f>
+        <v>412785116411.00891</v>
+      </c>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/IHP_2024/20240524/paramTable.xlsx
+++ b/IHP_2024/20240524/paramTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wada\Desktop\reserch\IHP_2024\20240524\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252DFCF5-613E-4775-8920-F24464D80778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA82E15-15C1-4A37-BAED-BF3259BF7727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{2C58B998-8B11-45C0-A8C7-FDB4A175F59E}"/>
+    <workbookView xWindow="0" yWindow="690" windowWidth="18150" windowHeight="13650" xr2:uid="{2C58B998-8B11-45C0-A8C7-FDB4A175F59E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
   <si>
     <r>
       <t>g</t>
@@ -52,7 +52,7 @@
       </rPr>
       <t>m1</t>
     </r>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
@@ -90,7 +90,7 @@
       </rPr>
       <t>C1</t>
     </r>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
@@ -107,7 +107,7 @@
       </rPr>
       <t>je1</t>
     </r>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
@@ -124,7 +124,7 @@
       </rPr>
       <t>ie1</t>
     </r>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
@@ -162,7 +162,7 @@
       </rPr>
       <t xml:space="preserve">C2 </t>
     </r>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
@@ -179,7 +179,7 @@
       </rPr>
       <t>jc1</t>
     </r>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
@@ -217,7 +217,7 @@
       </rPr>
       <t>ce1</t>
     </r>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
@@ -255,7 +255,7 @@
       </rPr>
       <t>E1</t>
     </r>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
@@ -272,7 +272,7 @@
       </rPr>
       <t>je2</t>
     </r>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
@@ -289,7 +289,7 @@
       </rPr>
       <t>m2</t>
     </r>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
@@ -306,7 +306,7 @@
       </rPr>
       <t>B</t>
     </r>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
@@ -323,7 +323,7 @@
       </rPr>
       <t>jc2</t>
     </r>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
@@ -340,7 +340,7 @@
       </rPr>
       <t>ie2</t>
     </r>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
@@ -357,7 +357,7 @@
       </rPr>
       <t>PD</t>
     </r>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
@@ -395,50 +395,38 @@
       </rPr>
       <t>ce2</t>
     </r>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>[Ω]</t>
   </si>
   <si>
     <t>[mS]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>385.6825 k</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>324.3113 k</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.164382 k</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>12.95 f</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>2.396 f</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>13.44 f</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>772.6 a</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>1 n</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>16 f</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
@@ -455,7 +443,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
@@ -472,7 +460,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
@@ -489,7 +477,7 @@
       </rPr>
       <t>3</t>
     </r>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
@@ -506,7 +494,7 @@
       </rPr>
       <t>4</t>
     </r>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
@@ -523,7 +511,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
@@ -540,7 +528,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
@@ -557,7 +545,7 @@
       </rPr>
       <t>10</t>
     </r>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
@@ -574,7 +562,7 @@
       </rPr>
       <t>11</t>
     </r>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
@@ -591,7 +579,7 @@
       </rPr>
       <t>12</t>
     </r>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
@@ -608,7 +596,7 @@
       </rPr>
       <t>20</t>
     </r>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
@@ -625,7 +613,7 @@
       </rPr>
       <t>21</t>
     </r>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
@@ -723,7 +711,7 @@
       </rPr>
       <t>20</t>
     </r>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
@@ -740,7 +728,7 @@
       </rPr>
       <t>21</t>
     </r>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
@@ -838,7 +826,7 @@
       </rPr>
       <t>10</t>
     </r>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
@@ -855,7 +843,7 @@
       </rPr>
       <t>11</t>
     </r>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
@@ -883,6 +871,22 @@
       </rPr>
       <t/>
     </r>
+  </si>
+  <si>
+    <t>2.658086 k</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>364.3157 k</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.312616 k</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.49529 M</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -890,21 +894,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="179" formatCode="0.0E+00"/>
-    <numFmt numFmtId="180" formatCode="0.000E+00"/>
-    <numFmt numFmtId="182" formatCode="0.00000E+00"/>
-    <numFmt numFmtId="183" formatCode="0.000000E+00"/>
-    <numFmt numFmtId="185" formatCode="0.00000000E+00"/>
+    <numFmt numFmtId="176" formatCode="0.0E+00"/>
+    <numFmt numFmtId="177" formatCode="0.000E+00"/>
+    <numFmt numFmtId="178" formatCode="0.00000E+00"/>
+    <numFmt numFmtId="179" formatCode="0.000000E+00"/>
+    <numFmt numFmtId="180" formatCode="0.00000000E+00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1197,109 +1193,109 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1639,7 +1635,7 @@
   <dimension ref="B1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1690,7 +1686,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>1</v>
@@ -1702,13 +1698,13 @@
         <v>2</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J3" s="13" t="s">
         <v>10</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.4">
@@ -1721,8 +1717,8 @@
       <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="4">
-        <v>341.35520000000002</v>
+      <c r="E4" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>4</v>
@@ -1734,13 +1730,13 @@
         <v>5</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.4">
@@ -1750,7 +1746,7 @@
         <v>12</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>7</v>
@@ -1762,7 +1758,7 @@
         <v>8</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="6"/>
@@ -1774,7 +1770,7 @@
         <v>14</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="7"/>
@@ -1782,7 +1778,7 @@
         <v>11</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="9"/>
@@ -1844,7 +1840,7 @@
         <v>6</v>
       </c>
       <c r="E10" s="32">
-        <v>341.35520000000002</v>
+        <v>2658.0859999999998</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>4</v>
@@ -1911,22 +1907,22 @@
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C14" s="25">
         <f>1/G11+C9+1/E10</f>
-        <v>2.9287961367378747E-2</v>
+        <v>2.6734672089963631E-2</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F14" s="36">
         <f>(C9+1/E10)*C10*C14</f>
-        <v>2.1098374201630532E-5</v>
+        <v>1.7486978605026182E-5</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="24"/>
@@ -1934,19 +1930,19 @@
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C15" s="25">
         <f>1/G9+1/E10+1/E9</f>
-        <v>4.0815179225325657E-3</v>
+        <v>1.528228645117452E-3</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F15" s="36"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="24"/>
@@ -1954,19 +1950,19 @@
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C16" s="25">
         <f>(1/E10)*(C9+1/E10)-C14*C15</f>
-        <v>-3.8247184234046626E-5</v>
+        <v>-3.1377611438360956E-5</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F16" s="36"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="24"/>
@@ -1974,11 +1970,11 @@
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C17" s="25">
         <f>C19*C20*(1/G10+1/E12)+I12*(C19*C15+C20*(1/E10))</f>
-        <v>1.4322258399493492E-30</v>
+        <v>1.3423536974556627E-30</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="36"/>
@@ -1991,15 +1987,15 @@
     <row r="18" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C18" s="25"/>
       <c r="E18" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F18" s="36">
         <f>-1 *C14*C16</f>
-        <v>1.120182054257775E-6</v>
+        <v>8.3887015277087226E-7</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="24"/>
@@ -2007,19 +2003,19 @@
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B19" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C19" s="25">
         <f>K10+I9</f>
         <v>2.8949999999999999E-14</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F19" s="36"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="24"/>
@@ -2027,19 +2023,19 @@
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C20" s="25">
         <f>I10+I12+I11</f>
         <v>1.6608600000000001E-14</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F20" s="36"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="24"/>
@@ -2048,19 +2044,19 @@
     <row r="21" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F21" s="36">
         <f>C19*C19*(1/G10+1/E12)+C19*I12*(C19*C15+C20*1/E10+C10*C19-C14*I12)-C14*I12*(I10+I11)</f>
-        <v>1.913489687990895E-30</v>
+        <v>1.9447289106300873E-30</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I21" s="36">
         <f>(1/(2*PI()))*(F18/F21)^(1/3)</f>
-        <v>13313971.609948317</v>
+        <v>12025376.67781066</v>
       </c>
       <c r="J21" s="24"/>
       <c r="K21" s="24"/>
@@ -2068,7 +2064,7 @@
     <row r="22" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F22" s="36">
         <f>C19*C19*I12*(I10+I11)</f>
@@ -2076,11 +2072,11 @@
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I22" s="25">
         <f>(1/(2*PI()))*((SQRT(2)-1)*(F18/F22))^(1/4)</f>
-        <v>412785116411.00891</v>
+        <v>383994993976.60187</v>
       </c>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
@@ -2104,7 +2100,7 @@
       <c r="K24" s="24"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/IHP_2024/20240524/paramTable.xlsx
+++ b/IHP_2024/20240524/paramTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wada\Desktop\reserch\IHP_2024\20240524\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitRepository\reserch\IHP_2024\20240524\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA82E15-15C1-4A37-BAED-BF3259BF7727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539E66A2-FE65-4949-9DF3-45F9FE645B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="690" windowWidth="18150" windowHeight="13650" xr2:uid="{2C58B998-8B11-45C0-A8C7-FDB4A175F59E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2C58B998-8B11-45C0-A8C7-FDB4A175F59E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
   <si>
     <r>
       <t>g</t>
@@ -886,6 +886,23 @@
   </si>
   <si>
     <t>1.49529 M</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times Newer Roman"/>
+        <family val="3"/>
+      </rPr>
+      <t>LOW</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1186,7 +1203,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1297,6 +1314,9 @@
     </xf>
     <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1634,8 +1654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{470DAB8F-DDA3-4267-A11D-2C543D78D80B}">
   <dimension ref="B1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1808,7 +1828,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="31">
-        <v>385682.5</v>
+        <v>1495290</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>1</v>
@@ -1868,7 +1888,7 @@
         <v>12</v>
       </c>
       <c r="E11" s="32">
-        <v>324311.3</v>
+        <v>364315.7</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>7</v>
@@ -1892,7 +1912,7 @@
         <v>14</v>
       </c>
       <c r="E12" s="33">
-        <v>1164.3820000000001</v>
+        <v>1312.616</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="7"/>
@@ -1925,8 +1945,13 @@
         <v>42</v>
       </c>
       <c r="I14" s="2"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
+      <c r="J14" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" s="37">
+        <f>((C9+1/E10)*(-1*C10*C14))/(C14*C16)</f>
+        <v>20.88010012126291</v>
+      </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B15" s="2" t="s">
@@ -1934,7 +1959,7 @@
       </c>
       <c r="C15" s="25">
         <f>1/G9+1/E10+1/E9</f>
-        <v>1.528228645117452E-3</v>
+        <v>1.5263046054521888E-3</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>30</v>
@@ -1954,7 +1979,7 @@
       </c>
       <c r="C16" s="25">
         <f>(1/E10)*(C9+1/E10)-C14*C15</f>
-        <v>-3.1377611438360956E-5</v>
+        <v>-3.1326172868822058E-5</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>31</v>
@@ -1974,7 +1999,7 @@
       </c>
       <c r="C17" s="25">
         <f>C19*C20*(1/G10+1/E12)+I12*(C19*C15+C20*(1/E10))</f>
-        <v>1.3423536974556627E-30</v>
+        <v>1.2956773526489965E-30</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="36"/>
@@ -1991,7 +2016,7 @@
       </c>
       <c r="F18" s="36">
         <f>-1 *C14*C16</f>
-        <v>8.3887015277087226E-7</v>
+        <v>8.3749495948147307E-7</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
@@ -2048,7 +2073,7 @@
       </c>
       <c r="F21" s="36">
         <f>C19*C19*(1/G10+1/E12)+C19*I12*(C19*C15+C20*1/E10+C10*C19-C14*I12)-C14*I12*(I10+I11)</f>
-        <v>1.9447289106300873E-30</v>
+        <v>1.8634436528808869E-30</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
@@ -2056,7 +2081,7 @@
       </c>
       <c r="I21" s="36">
         <f>(1/(2*PI()))*(F18/F21)^(1/3)</f>
-        <v>12025376.67781066</v>
+        <v>12191078.018295771</v>
       </c>
       <c r="J21" s="24"/>
       <c r="K21" s="24"/>
@@ -2076,7 +2101,7 @@
       </c>
       <c r="I22" s="25">
         <f>(1/(2*PI()))*((SQRT(2)-1)*(F18/F22))^(1/4)</f>
-        <v>383994993976.60187</v>
+        <v>383837522561.4444</v>
       </c>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
